--- a/homework3/data-ocr.xlsx
+++ b/homework3/data-ocr.xlsx
@@ -4202,15 +4202,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>339090</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
